--- a/npbenchmark-main/travel_thief/papers_related.xlsx
+++ b/npbenchmark-main/travel_thief/papers_related.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED97E8CC-D3A7-492D-838F-7D3AD3CBA5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DEB917-5C35-403A-9C6C-D675BDA714C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>The travelling thief problem: the first step in the  transition from theoretical problems to realistic  problems</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>https://github.com/ssfc/npbenchmark/blob/main/npbenchmark-main/travel_thief/2018%20A%20fitness%20landscape%20analysis%20of%20the%20travelling%20thief%20problem.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A hyperheuristic approach based on low-level heuristics for the travelling thief problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ssfc/npbenchmark/blob/main/npbenchmark-main/travel_thief/2018%20A%20hyperheuristic%20approach%20based%20on%20low-level%20heuristics%20for%20the%20travelling%20thief%20problem.md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -505,6 +513,14 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -519,8 +535,9 @@
     <hyperlink ref="B7" r:id="rId7" xr:uid="{94FA195C-26BE-42A0-BB67-517F58945111}"/>
     <hyperlink ref="B8" r:id="rId8" xr:uid="{42E3D890-9386-402C-AAB5-3880D3C8D5B2}"/>
     <hyperlink ref="B9" r:id="rId9" xr:uid="{44B90333-F8EE-48E8-8794-216F3FD397AF}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{DD14804C-6F11-4F82-A16A-891A0DED0760}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/npbenchmark-main/travel_thief/papers_related.xlsx
+++ b/npbenchmark-main/travel_thief/papers_related.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DEB917-5C35-403A-9C6C-D675BDA714C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6D5625-8D18-499E-9F42-2A9DA9C66D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>The travelling thief problem: the first step in the  transition from theoretical problems to realistic  problems</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>https://github.com/ssfc/npbenchmark/blob/main/npbenchmark-main/travel_thief/2018%20A%20hyperheuristic%20approach%20based%20on%20low-level%20heuristics%20for%20the%20travelling%20thief%20problem.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -445,39 +453,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -485,15 +493,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -501,41 +509,49 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{2E435D73-B768-4E92-9776-65C72488A524}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{879DA416-D14A-4F57-BAB9-74C051AB407B}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{80CBD627-3621-47C9-9464-0AD53AD72C98}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{8443E744-FB37-47C6-8C3F-6DEC82290D88}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{D5EE71C9-93A1-472B-AF7F-0BD089DBAED2}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{036A86D4-9CA5-4169-AF02-0CBBAF9EAFBA}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{94FA195C-26BE-42A0-BB67-517F58945111}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{42E3D890-9386-402C-AAB5-3880D3C8D5B2}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{44B90333-F8EE-48E8-8794-216F3FD397AF}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{DD14804C-6F11-4F82-A16A-891A0DED0760}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2E435D73-B768-4E92-9776-65C72488A524}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{879DA416-D14A-4F57-BAB9-74C051AB407B}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{80CBD627-3621-47C9-9464-0AD53AD72C98}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{8443E744-FB37-47C6-8C3F-6DEC82290D88}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{D5EE71C9-93A1-472B-AF7F-0BD089DBAED2}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{036A86D4-9CA5-4169-AF02-0CBBAF9EAFBA}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{94FA195C-26BE-42A0-BB67-517F58945111}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{42E3D890-9386-402C-AAB5-3880D3C8D5B2}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{44B90333-F8EE-48E8-8794-216F3FD397AF}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{DD14804C-6F11-4F82-A16A-891A0DED0760}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
